--- a/portfolios-descricao.xlsx
+++ b/portfolios-descricao.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Documents\code\BTHOWeN-Risk-Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD82C067-E55F-49F6-AB88-E4A71978A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F59065-B7EC-4927-A727-4A442E8B2FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="1605" windowWidth="17880" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="1935" windowWidth="17880" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>portfolio0</t>
   </si>
@@ -62,15 +63,6 @@
     <t>portfolio2</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    ITUB4.SA: 0.20,
-    AAPL: 0.20,
-    EGE3.SA: 0.20,
-    JBSS3.SA: 0.20,
-    XOM: 0.20
-</t>
-  </si>
-  <si>
     <t>Portfólio diversificado, com baixa correlação. Dados desde 2015.</t>
   </si>
   <si>
@@ -80,26 +72,10 @@
     <t>Exposição a commodities. Dados desde 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">    PETR4.SA: 0.30,
-    VALE3.SA: 0.30,
-    PBR: 0.20,
-    GOLD: 0.10,
-    RIO: 0.10</t>
-  </si>
-  <si>
     <t>portfolio4</t>
   </si>
   <si>
     <t>Alta volatidade. Dados desde 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    ABEV3.SA: 0.25,
-    B3SA3.SA: 0.25,
-    JNJ: 0.20,
-    V: 0.15,
-    EGIE3.SA: 0.15
-</t>
   </si>
   <si>
     <t>Portfólio com baixa volatilidade. Dados desde 2015.</t>
@@ -127,6 +103,71 @@
     PETR4.SA: 0.20,
     ITUB4.SA: 0.25,
    AAPL: 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    ITUB4.SA: 0.25,
+    AAPL: 0.25,
+    EGIE3.SA: 0.25,
+    JBSS3.SA: 0.25,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PETR4.SA: 0.25,
+    VALE3.SA: 0.25,
+    PBR: 0.25,
+    GOLD: 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    ABEV3.SA: 0.25,
+    B3SA3.SA: 0.25,
+    JNJ: 0.25,
+    V: 0.25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    ITUB4.SA
+    AAPL
+    EGIE3.SA
+    JBSS3.SA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   VALE3.SA
+    CMIN3.SA
+    GGBR4.SA
+    USIM5.SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PETR4.SA
+    VALE3.SA
+    PBR
+    GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    TSLA
+    COIN
+    NVDA
+    MGLU3.SA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    ABEV3.SA
+    B3SA3.SA
+    JNJ
+    V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VALE3.SA
+    PETR4.SA
+    ITUB4.SA
+   AAPL</t>
   </si>
 </sst>
 </file>
@@ -463,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -501,58 +542,147 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84D5D7D-2F2B-4598-A016-04DC5C87CD26}">
+  <dimension ref="A6:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>"Portfolio"&amp;A6+0</f>
+        <v>Portfolio0</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ref="B8:F8" si="0">"Portfolio"&amp;B6+0</f>
+        <v>Portfolio1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Portfolio2</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Portfolio3</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Portfolio4</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Portfolio5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/portfolios-descricao.xlsx
+++ b/portfolios-descricao.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Documents\code\BTHOWeN-Risk-Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F59065-B7EC-4927-A727-4A442E8B2FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E967BA-8ED0-4DBF-BF15-D04CAF1A0663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1935" windowWidth="17880" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>portfolio0</t>
   </si>
@@ -169,12 +169,129 @@
     ITUB4.SA
    AAPL</t>
   </si>
+  <si>
+    <t>Portfólio 1</t>
+  </si>
+  <si>
+    <t>Portfólio 2</t>
+  </si>
+  <si>
+    <t>Portfólio 3</t>
+  </si>
+  <si>
+    <t>Portfólio 4</t>
+  </si>
+  <si>
+    <t>Portfólio 5</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>ITUB4.SA</t>
+  </si>
+  <si>
+    <t>JBSS3.SA</t>
+  </si>
+  <si>
+    <t>MGLU3.SA</t>
+  </si>
+  <si>
+    <t>VALE3.SA</t>
+  </si>
+  <si>
+    <t>PETR4.SA</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>ABEV3.SA</t>
+  </si>
+  <si>
+    <t>CMIN3.SA</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>B3SA3.SA</t>
+  </si>
+  <si>
+    <t>GGBR4.SA</t>
+  </si>
+  <si>
+    <t>EGIE3.SA</t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>USIM5.SA</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Portfólio 0</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Portfólio 7</t>
+  </si>
+  <si>
+    <t>Portfólio 8</t>
+  </si>
+  <si>
+    <t>Portfólio 6</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>SOFI</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +307,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,11 +347,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +405,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +806,7 @@
   <dimension ref="A6:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,4 +888,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4BFD2E-2C55-4357-8458-0F57C7556A1A}">
+  <dimension ref="A2:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>